--- a/NformTester/NformTester/Keywordscripts/600.40.30.50_UsersandGroupsUserProfile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.50_UsersandGroupsUserProfile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1195,12 +1195,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7372" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7372" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3799,6 +3799,10 @@
   <si>
     <t>;Verify the change should be saved.</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4010,7 +4014,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
@@ -4455,7 +4459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4741,8 +4745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5893,7 +5897,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>18</v>
